--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -20,11 +20,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -55,10 +53,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -545,7 +542,7 @@
       <c r="H2" s="1" t="n">
         <v>46069.04180555556</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="1" t="n">
         <v>46069</v>
       </c>
       <c r="J2" t="inlineStr">
@@ -605,7 +602,7 @@
       <c r="H3" s="1" t="n">
         <v>46068.9044212963</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J3" t="inlineStr">
@@ -665,7 +662,7 @@
       <c r="H4" s="1" t="n">
         <v>46068.81594907407</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J4" t="inlineStr">
@@ -725,7 +722,7 @@
       <c r="H5" s="1" t="n">
         <v>46068.80881944444</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="I5" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J5" t="inlineStr">
@@ -785,7 +782,7 @@
       <c r="H6" s="1" t="n">
         <v>46068.80244212963</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="I6" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J6" t="inlineStr">
@@ -845,7 +842,7 @@
       <c r="H7" s="1" t="n">
         <v>46068.76951388889</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J7" t="inlineStr">
@@ -905,7 +902,7 @@
       <c r="H8" s="1" t="n">
         <v>46068.73875</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="I8" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J8" t="inlineStr">
@@ -965,7 +962,7 @@
       <c r="H9" s="1" t="n">
         <v>46068.73170138889</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J9" t="inlineStr">
@@ -1026,7 +1023,7 @@
       <c r="H10" s="1" t="n">
         <v>46068.72800925926</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="I10" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J10" t="inlineStr">
@@ -1086,7 +1083,7 @@
       <c r="H11" s="1" t="n">
         <v>46068.6917824074</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J11" t="inlineStr">
@@ -1146,7 +1143,7 @@
       <c r="H12" s="1" t="n">
         <v>46068.6902662037</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="I12" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J12" t="inlineStr">
@@ -1206,7 +1203,7 @@
       <c r="H13" s="1" t="n">
         <v>46068.67055555555</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="I13" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J13" t="inlineStr">
@@ -1266,7 +1263,7 @@
       <c r="H14" s="1" t="n">
         <v>46068.64717592593</v>
       </c>
-      <c r="I14" s="2" t="n">
+      <c r="I14" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J14" t="inlineStr">
@@ -1326,7 +1323,7 @@
       <c r="H15" s="1" t="n">
         <v>46068.63348379629</v>
       </c>
-      <c r="I15" s="2" t="n">
+      <c r="I15" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J15" t="inlineStr">
@@ -1386,7 +1383,7 @@
       <c r="H16" s="1" t="n">
         <v>46068.61332175926</v>
       </c>
-      <c r="I16" s="2" t="n">
+      <c r="I16" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J16" t="inlineStr">
@@ -1446,7 +1443,7 @@
       <c r="H17" s="1" t="n">
         <v>46068.25341435185</v>
       </c>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J17" t="inlineStr">
@@ -1506,7 +1503,7 @@
       <c r="H18" s="1" t="n">
         <v>46068.19567129629</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J18" t="inlineStr">
@@ -1566,7 +1563,7 @@
       <c r="H19" s="1" t="n">
         <v>46068.11652777778</v>
       </c>
-      <c r="I19" s="2" t="n">
+      <c r="I19" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J19" t="inlineStr">
@@ -1626,7 +1623,7 @@
       <c r="H20" s="1" t="n">
         <v>46068.07310185185</v>
       </c>
-      <c r="I20" s="2" t="n">
+      <c r="I20" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J20" t="inlineStr">
@@ -1686,7 +1683,7 @@
       <c r="H21" s="1" t="n">
         <v>46068.05703703704</v>
       </c>
-      <c r="I21" s="2" t="n">
+      <c r="I21" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J21" t="inlineStr">
@@ -1746,7 +1743,7 @@
       <c r="H22" s="1" t="n">
         <v>46067.96181712963</v>
       </c>
-      <c r="I22" s="2" t="n">
+      <c r="I22" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="J22" t="inlineStr">
@@ -1806,7 +1803,7 @@
       <c r="H23" s="1" t="n">
         <v>46067.91247685185</v>
       </c>
-      <c r="I23" s="2" t="n">
+      <c r="I23" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="J23" t="inlineStr">
@@ -1866,7 +1863,7 @@
       <c r="H24" s="1" t="n">
         <v>46067.88135416667</v>
       </c>
-      <c r="I24" s="2" t="n">
+      <c r="I24" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="J24" t="inlineStr">
@@ -1926,7 +1923,7 @@
       <c r="H25" s="1" t="n">
         <v>46067.88121527778</v>
       </c>
-      <c r="I25" s="2" t="n">
+      <c r="I25" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="J25" t="inlineStr">
@@ -1986,7 +1983,7 @@
       <c r="H26" s="1" t="n">
         <v>46067.88114583334</v>
       </c>
-      <c r="I26" s="2" t="n">
+      <c r="I26" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="J26" t="inlineStr">
@@ -2046,7 +2043,7 @@
       <c r="H27" s="1" t="n">
         <v>46067.84305555555</v>
       </c>
-      <c r="I27" s="2" t="n">
+      <c r="I27" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="J27" t="inlineStr">
@@ -2106,7 +2103,7 @@
       <c r="H28" s="1" t="n">
         <v>46067.77193287037</v>
       </c>
-      <c r="I28" s="2" t="n">
+      <c r="I28" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="J28" t="inlineStr">
@@ -2166,7 +2163,7 @@
       <c r="H29" s="1" t="n">
         <v>46067.77165509259</v>
       </c>
-      <c r="I29" s="2" t="n">
+      <c r="I29" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="J29" t="inlineStr">
@@ -2226,7 +2223,7 @@
       <c r="H30" s="1" t="n">
         <v>46067.76638888889</v>
       </c>
-      <c r="I30" s="2" t="n">
+      <c r="I30" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="J30" t="inlineStr">
@@ -2286,7 +2283,7 @@
       <c r="H31" s="1" t="n">
         <v>46067.74966435185</v>
       </c>
-      <c r="I31" s="2" t="n">
+      <c r="I31" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="J31" t="inlineStr">
@@ -2346,7 +2343,7 @@
       <c r="H32" s="1" t="n">
         <v>46067.70174768518</v>
       </c>
-      <c r="I32" s="2" t="n">
+      <c r="I32" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="J32" t="inlineStr">
@@ -2406,7 +2403,7 @@
       <c r="H33" s="1" t="n">
         <v>46067.68510416667</v>
       </c>
-      <c r="I33" s="2" t="n">
+      <c r="I33" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="J33" t="inlineStr">
@@ -2466,7 +2463,7 @@
       <c r="H34" s="1" t="n">
         <v>46067.67340277778</v>
       </c>
-      <c r="I34" s="2" t="n">
+      <c r="I34" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="J34" t="inlineStr">
@@ -2526,7 +2523,7 @@
       <c r="H35" s="1" t="n">
         <v>46067.65989583333</v>
       </c>
-      <c r="I35" s="2" t="n">
+      <c r="I35" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="J35" t="inlineStr">
@@ -2586,7 +2583,7 @@
       <c r="H36" s="1" t="n">
         <v>46067.60378472223</v>
       </c>
-      <c r="I36" s="2" t="n">
+      <c r="I36" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="J36" t="inlineStr">
@@ -2646,7 +2643,7 @@
       <c r="H37" s="1" t="n">
         <v>46067.60365740741</v>
       </c>
-      <c r="I37" s="2" t="n">
+      <c r="I37" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="J37" t="inlineStr">
@@ -2706,7 +2703,7 @@
       <c r="H38" s="1" t="n">
         <v>46067.45497685186</v>
       </c>
-      <c r="I38" s="2" t="n">
+      <c r="I38" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="J38" t="inlineStr">
@@ -2766,7 +2763,7 @@
       <c r="H39" s="1" t="n">
         <v>46067.25508101852</v>
       </c>
-      <c r="I39" s="2" t="n">
+      <c r="I39" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="J39" t="inlineStr">
@@ -2826,7 +2823,7 @@
       <c r="H40" s="1" t="n">
         <v>46067.1931712963</v>
       </c>
-      <c r="I40" s="2" t="n">
+      <c r="I40" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="J40" t="inlineStr">
@@ -2886,7 +2883,7 @@
       <c r="H41" s="1" t="n">
         <v>46067.05342592593</v>
       </c>
-      <c r="I41" s="2" t="n">
+      <c r="I41" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="J41" t="inlineStr">
@@ -2946,7 +2943,7 @@
       <c r="H42" s="1" t="n">
         <v>46066.82733796296</v>
       </c>
-      <c r="I42" s="2" t="n">
+      <c r="I42" s="1" t="n">
         <v>46066</v>
       </c>
       <c r="J42" t="inlineStr">
@@ -3006,7 +3003,7 @@
       <c r="H43" s="1" t="n">
         <v>46066.82644675926</v>
       </c>
-      <c r="I43" s="2" t="n">
+      <c r="I43" s="1" t="n">
         <v>46066</v>
       </c>
       <c r="J43" t="inlineStr">
@@ -3066,7 +3063,7 @@
       <c r="H44" s="1" t="n">
         <v>46066.73618055556</v>
       </c>
-      <c r="I44" s="2" t="n">
+      <c r="I44" s="1" t="n">
         <v>46066</v>
       </c>
       <c r="J44" t="inlineStr">
@@ -3126,7 +3123,7 @@
       <c r="H45" s="1" t="n">
         <v>46066.68771990741</v>
       </c>
-      <c r="I45" s="2" t="n">
+      <c r="I45" s="1" t="n">
         <v>46066</v>
       </c>
       <c r="J45" t="inlineStr">
@@ -3186,7 +3183,7 @@
       <c r="H46" s="1" t="n">
         <v>46066.58899305556</v>
       </c>
-      <c r="I46" s="2" t="n">
+      <c r="I46" s="1" t="n">
         <v>46066</v>
       </c>
       <c r="J46" t="inlineStr">
@@ -3246,7 +3243,7 @@
       <c r="H47" s="1" t="n">
         <v>46066.53428240741</v>
       </c>
-      <c r="I47" s="2" t="n">
+      <c r="I47" s="1" t="n">
         <v>46066</v>
       </c>
       <c r="J47" t="inlineStr">
@@ -3306,7 +3303,7 @@
       <c r="H48" s="1" t="n">
         <v>46066.50451388889</v>
       </c>
-      <c r="I48" s="2" t="n">
+      <c r="I48" s="1" t="n">
         <v>46066</v>
       </c>
       <c r="J48" t="inlineStr">
@@ -3366,7 +3363,7 @@
       <c r="H49" s="1" t="n">
         <v>46066.27341435185</v>
       </c>
-      <c r="I49" s="2" t="n">
+      <c r="I49" s="1" t="n">
         <v>46066</v>
       </c>
       <c r="J49" t="inlineStr">
@@ -3426,7 +3423,7 @@
       <c r="H50" s="1" t="n">
         <v>46066.12270833334</v>
       </c>
-      <c r="I50" s="2" t="n">
+      <c r="I50" s="1" t="n">
         <v>46066</v>
       </c>
       <c r="J50" t="inlineStr">
@@ -3486,7 +3483,7 @@
       <c r="H51" s="1" t="n">
         <v>46066.09157407407</v>
       </c>
-      <c r="I51" s="2" t="n">
+      <c r="I51" s="1" t="n">
         <v>46066</v>
       </c>
       <c r="J51" t="inlineStr">
@@ -3546,7 +3543,7 @@
       <c r="H52" s="1" t="n">
         <v>46066.05868055556</v>
       </c>
-      <c r="I52" s="2" t="n">
+      <c r="I52" s="1" t="n">
         <v>46066</v>
       </c>
       <c r="J52" t="inlineStr">
@@ -3606,7 +3603,7 @@
       <c r="H53" s="1" t="n">
         <v>46066.02337962963</v>
       </c>
-      <c r="I53" s="2" t="n">
+      <c r="I53" s="1" t="n">
         <v>46066</v>
       </c>
       <c r="J53" t="inlineStr">
@@ -3666,7 +3663,7 @@
       <c r="H54" s="1" t="n">
         <v>46065.9875462963</v>
       </c>
-      <c r="I54" s="2" t="n">
+      <c r="I54" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J54" t="inlineStr">
@@ -3726,7 +3723,7 @@
       <c r="H55" s="1" t="n">
         <v>46065.96262731482</v>
       </c>
-      <c r="I55" s="2" t="n">
+      <c r="I55" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J55" t="inlineStr">
@@ -3786,7 +3783,7 @@
       <c r="H56" s="1" t="n">
         <v>46065.91646990741</v>
       </c>
-      <c r="I56" s="2" t="n">
+      <c r="I56" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J56" t="inlineStr">
@@ -3846,7 +3843,7 @@
       <c r="H57" s="1" t="n">
         <v>46065.88068287037</v>
       </c>
-      <c r="I57" s="2" t="n">
+      <c r="I57" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J57" t="inlineStr">
@@ -3906,7 +3903,7 @@
       <c r="H58" s="1" t="n">
         <v>46065.85527777778</v>
       </c>
-      <c r="I58" s="2" t="n">
+      <c r="I58" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J58" t="inlineStr">
@@ -3966,7 +3963,7 @@
       <c r="H59" s="1" t="n">
         <v>46065.81391203704</v>
       </c>
-      <c r="I59" s="2" t="n">
+      <c r="I59" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J59" t="inlineStr">
@@ -4026,7 +4023,7 @@
       <c r="H60" s="1" t="n">
         <v>46065.77532407407</v>
       </c>
-      <c r="I60" s="2" t="n">
+      <c r="I60" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J60" t="inlineStr">
@@ -4086,7 +4083,7 @@
       <c r="H61" s="1" t="n">
         <v>46065.76152777778</v>
       </c>
-      <c r="I61" s="2" t="n">
+      <c r="I61" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J61" t="inlineStr">
@@ -4146,7 +4143,7 @@
       <c r="H62" s="1" t="n">
         <v>46065.72796296296</v>
       </c>
-      <c r="I62" s="2" t="n">
+      <c r="I62" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J62" t="inlineStr">
@@ -4206,7 +4203,7 @@
       <c r="H63" s="1" t="n">
         <v>46065.69936342593</v>
       </c>
-      <c r="I63" s="2" t="n">
+      <c r="I63" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J63" t="inlineStr">
@@ -4266,7 +4263,7 @@
       <c r="H64" s="1" t="n">
         <v>46065.69087962963</v>
       </c>
-      <c r="I64" s="2" t="n">
+      <c r="I64" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J64" t="inlineStr">
@@ -4326,7 +4323,7 @@
       <c r="H65" s="1" t="n">
         <v>46065.67028935185</v>
       </c>
-      <c r="I65" s="2" t="n">
+      <c r="I65" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J65" t="inlineStr">
@@ -4386,7 +4383,7 @@
       <c r="H66" s="1" t="n">
         <v>46065.6658912037</v>
       </c>
-      <c r="I66" s="2" t="n">
+      <c r="I66" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J66" t="inlineStr">
@@ -4446,7 +4443,7 @@
       <c r="H67" s="1" t="n">
         <v>46065.42940972222</v>
       </c>
-      <c r="I67" s="2" t="n">
+      <c r="I67" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J67" t="inlineStr">
@@ -4506,7 +4503,7 @@
       <c r="H68" s="1" t="n">
         <v>46065.42579861111</v>
       </c>
-      <c r="I68" s="2" t="n">
+      <c r="I68" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J68" t="inlineStr">
@@ -4566,7 +4563,7 @@
       <c r="H69" s="1" t="n">
         <v>46065.4177662037</v>
       </c>
-      <c r="I69" s="2" t="n">
+      <c r="I69" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J69" t="inlineStr">
@@ -4626,7 +4623,7 @@
       <c r="H70" s="1" t="n">
         <v>46065.40700231482</v>
       </c>
-      <c r="I70" s="2" t="n">
+      <c r="I70" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J70" t="inlineStr">
@@ -4686,7 +4683,7 @@
       <c r="H71" s="1" t="n">
         <v>46065.3475</v>
       </c>
-      <c r="I71" s="2" t="n">
+      <c r="I71" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J71" t="inlineStr">
@@ -4752,7 +4749,7 @@
       <c r="H72" s="1" t="n">
         <v>46058.89574074074</v>
       </c>
-      <c r="I72" s="2" t="n">
+      <c r="I72" s="1" t="n">
         <v>46058</v>
       </c>
       <c r="J72" t="inlineStr">
@@ -5066,7 +5063,7 @@
       <c r="H79" s="1" t="n">
         <v>46069.15789351852</v>
       </c>
-      <c r="I79" s="2" t="n">
+      <c r="I79" s="1" t="n">
         <v>46069</v>
       </c>
       <c r="J79" t="inlineStr">
@@ -5074,10 +5071,8 @@
           <t>03:47:22</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K79" t="n">
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -5126,7 +5121,7 @@
       <c r="H80" s="1" t="n">
         <v>46068.96866898148</v>
       </c>
-      <c r="I80" s="2" t="n">
+      <c r="I80" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J80" t="inlineStr">
@@ -5134,10 +5129,8 @@
           <t>23:14:53</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K80" t="n">
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -5186,7 +5179,7 @@
       <c r="H81" s="1" t="n">
         <v>46068.91921296297</v>
       </c>
-      <c r="I81" s="2" t="n">
+      <c r="I81" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J81" t="inlineStr">
@@ -5194,10 +5187,8 @@
           <t>22:03:40</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K81" t="n">
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -5246,7 +5237,7 @@
       <c r="H82" s="1" t="n">
         <v>46068.7306712963</v>
       </c>
-      <c r="I82" s="2" t="n">
+      <c r="I82" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J82" t="inlineStr">
@@ -5254,10 +5245,8 @@
           <t>17:32:10</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K82" t="n">
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -5309,7 +5298,7 @@
       <c r="H83" s="1" t="n">
         <v>46068.61979166666</v>
       </c>
-      <c r="I83" s="2" t="n">
+      <c r="I83" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J83" t="inlineStr">
@@ -5317,10 +5306,8 @@
           <t>14:52:30</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K83" t="n">
+        <v>0</v>
       </c>
       <c r="L83" t="n">
         <v>0</v>
@@ -5369,7 +5356,7 @@
       <c r="H84" s="1" t="n">
         <v>46068.51175925926</v>
       </c>
-      <c r="I84" s="2" t="n">
+      <c r="I84" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J84" t="inlineStr">
@@ -5377,10 +5364,8 @@
           <t>12:16:56</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K84" t="n">
+        <v>1</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -5429,7 +5414,7 @@
       <c r="H85" s="1" t="n">
         <v>46067.40193287037</v>
       </c>
-      <c r="I85" s="2" t="n">
+      <c r="I85" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="J85" t="inlineStr">
@@ -5437,10 +5422,8 @@
           <t>09:38:47</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K85" t="n">
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -5489,7 +5472,7 @@
       <c r="H86" s="1" t="n">
         <v>46067.1016087963</v>
       </c>
-      <c r="I86" s="2" t="n">
+      <c r="I86" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="J86" t="inlineStr">
@@ -5497,10 +5480,8 @@
           <t>02:26:19</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K86" t="n">
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -5549,7 +5530,7 @@
       <c r="H87" s="1" t="n">
         <v>46067.07829861111</v>
       </c>
-      <c r="I87" s="2" t="n">
+      <c r="I87" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="J87" t="inlineStr">
@@ -5557,10 +5538,8 @@
           <t>01:52:45</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K87" t="n">
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -5609,7 +5588,7 @@
       <c r="H88" s="1" t="n">
         <v>46066.90738425926</v>
       </c>
-      <c r="I88" s="2" t="n">
+      <c r="I88" s="1" t="n">
         <v>46066</v>
       </c>
       <c r="J88" t="inlineStr">
@@ -5617,10 +5596,8 @@
           <t>21:46:38</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K88" t="n">
+        <v>1</v>
       </c>
       <c r="L88" t="n">
         <v>0</v>
@@ -5669,7 +5646,7 @@
       <c r="H89" s="1" t="n">
         <v>46066.8709375</v>
       </c>
-      <c r="I89" s="2" t="n">
+      <c r="I89" s="1" t="n">
         <v>46066</v>
       </c>
       <c r="J89" t="inlineStr">
@@ -5677,10 +5654,8 @@
           <t>20:54:09</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="K89" t="n">
+        <v>4</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -5729,7 +5704,7 @@
       <c r="H90" s="1" t="n">
         <v>46066.7302662037</v>
       </c>
-      <c r="I90" s="2" t="n">
+      <c r="I90" s="1" t="n">
         <v>46066</v>
       </c>
       <c r="J90" t="inlineStr">
@@ -5737,10 +5712,8 @@
           <t>17:31:35</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K90" t="n">
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -5789,7 +5762,7 @@
       <c r="H91" s="1" t="n">
         <v>46066.72842592592</v>
       </c>
-      <c r="I91" s="2" t="n">
+      <c r="I91" s="1" t="n">
         <v>46066</v>
       </c>
       <c r="J91" t="inlineStr">
@@ -5797,10 +5770,8 @@
           <t>17:28:56</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K91" t="n">
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
@@ -5849,7 +5820,7 @@
       <c r="H92" s="1" t="n">
         <v>46066.52780092593</v>
       </c>
-      <c r="I92" s="2" t="n">
+      <c r="I92" s="1" t="n">
         <v>46066</v>
       </c>
       <c r="J92" t="inlineStr">
@@ -5857,10 +5828,8 @@
           <t>12:40:02</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K92" t="n">
+        <v>1</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -5909,7 +5878,7 @@
       <c r="H93" s="1" t="n">
         <v>46066.19586805555</v>
       </c>
-      <c r="I93" s="2" t="n">
+      <c r="I93" s="1" t="n">
         <v>46066</v>
       </c>
       <c r="J93" t="inlineStr">
@@ -5917,10 +5886,8 @@
           <t>04:42:03</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K93" t="n">
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -5969,7 +5936,7 @@
       <c r="H94" s="1" t="n">
         <v>46065.97723379629</v>
       </c>
-      <c r="I94" s="2" t="n">
+      <c r="I94" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J94" t="inlineStr">
@@ -5977,10 +5944,8 @@
           <t>23:27:13</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="K94" t="n">
+        <v>5</v>
       </c>
       <c r="L94" t="n">
         <v>0</v>
@@ -6029,7 +5994,7 @@
       <c r="H95" s="1" t="n">
         <v>46065.84828703704</v>
       </c>
-      <c r="I95" s="2" t="n">
+      <c r="I95" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J95" t="inlineStr">
@@ -6037,10 +6002,8 @@
           <t>20:21:32</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+      <c r="K95" t="n">
+        <v>17</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -6089,7 +6052,7 @@
       <c r="H96" s="1" t="n">
         <v>46065.82498842593</v>
       </c>
-      <c r="I96" s="2" t="n">
+      <c r="I96" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J96" t="inlineStr">
@@ -6097,10 +6060,8 @@
           <t>19:47:59</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K96" t="n">
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
@@ -6149,7 +6110,7 @@
       <c r="H97" s="1" t="n">
         <v>46065.82070601852</v>
       </c>
-      <c r="I97" s="2" t="n">
+      <c r="I97" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J97" t="inlineStr">
@@ -6157,10 +6118,8 @@
           <t>19:41:49</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K97" t="n">
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -6209,7 +6168,7 @@
       <c r="H98" s="1" t="n">
         <v>46065.7512037037</v>
       </c>
-      <c r="I98" s="2" t="n">
+      <c r="I98" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J98" t="inlineStr">
@@ -6217,10 +6176,8 @@
           <t>18:01:44</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K98" t="n">
+        <v>1</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -6274,7 +6231,7 @@
       <c r="H99" s="1" t="n">
         <v>46065.73695601852</v>
       </c>
-      <c r="I99" s="2" t="n">
+      <c r="I99" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J99" t="inlineStr">
@@ -6282,10 +6239,8 @@
           <t>17:41:13</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="K99" t="n">
+        <v>7</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -6334,7 +6289,7 @@
       <c r="H100" s="1" t="n">
         <v>46065.69267361111</v>
       </c>
-      <c r="I100" s="2" t="n">
+      <c r="I100" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J100" t="inlineStr">
@@ -6342,10 +6297,8 @@
           <t>16:37:27</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K100" t="n">
+        <v>0</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
@@ -6394,7 +6347,7 @@
       <c r="H101" s="1" t="n">
         <v>46064.93391203704</v>
       </c>
-      <c r="I101" s="2" t="n">
+      <c r="I101" s="1" t="n">
         <v>46064</v>
       </c>
       <c r="J101" t="inlineStr">
@@ -6402,10 +6355,8 @@
           <t>22:24:50</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="K101" t="n">
+        <v>5</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -6454,7 +6405,7 @@
       <c r="H102" s="1" t="n">
         <v>46064.83177083333</v>
       </c>
-      <c r="I102" s="2" t="n">
+      <c r="I102" s="1" t="n">
         <v>46064</v>
       </c>
       <c r="J102" t="inlineStr">
@@ -6462,10 +6413,8 @@
           <t>19:57:45</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K102" t="n">
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -6514,7 +6463,7 @@
       <c r="H103" s="1" t="n">
         <v>46069.11157407407</v>
       </c>
-      <c r="I103" s="2" t="n">
+      <c r="I103" s="1" t="n">
         <v>46069</v>
       </c>
       <c r="J103" t="inlineStr">
@@ -6522,10 +6471,8 @@
           <t>02:40:40</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K103" t="n">
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
@@ -6574,7 +6521,7 @@
       <c r="H104" s="1" t="n">
         <v>46069.09537037037</v>
       </c>
-      <c r="I104" s="2" t="n">
+      <c r="I104" s="1" t="n">
         <v>46069</v>
       </c>
       <c r="J104" t="inlineStr">
@@ -6582,10 +6529,8 @@
           <t>02:17:20</t>
         </is>
       </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K104" t="n">
+        <v>0</v>
       </c>
       <c r="L104" t="n">
         <v>0</v>
@@ -6634,7 +6579,7 @@
       <c r="H105" s="1" t="n">
         <v>46069.06372685185</v>
       </c>
-      <c r="I105" s="2" t="n">
+      <c r="I105" s="1" t="n">
         <v>46069</v>
       </c>
       <c r="J105" t="inlineStr">
@@ -6642,10 +6587,8 @@
           <t>01:31:46</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K105" t="n">
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
@@ -6697,7 +6640,7 @@
       <c r="H106" s="1" t="n">
         <v>46069.06258101852</v>
       </c>
-      <c r="I106" s="2" t="n">
+      <c r="I106" s="1" t="n">
         <v>46069</v>
       </c>
       <c r="J106" t="inlineStr">
@@ -6705,10 +6648,8 @@
           <t>01:30:07</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K106" t="n">
+        <v>0</v>
       </c>
       <c r="L106" t="n">
         <v>0</v>
@@ -6757,7 +6698,7 @@
       <c r="H107" s="1" t="n">
         <v>46069.01515046296</v>
       </c>
-      <c r="I107" s="2" t="n">
+      <c r="I107" s="1" t="n">
         <v>46069</v>
       </c>
       <c r="J107" t="inlineStr">
@@ -6765,10 +6706,8 @@
           <t>00:21:49</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K107" t="n">
+        <v>1</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
@@ -6817,7 +6756,7 @@
       <c r="H108" s="1" t="n">
         <v>46068.99363425926</v>
       </c>
-      <c r="I108" s="2" t="n">
+      <c r="I108" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J108" t="inlineStr">
@@ -6825,10 +6764,8 @@
           <t>23:50:50</t>
         </is>
       </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K108" t="n">
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>0</v>
@@ -6877,7 +6814,7 @@
       <c r="H109" s="1" t="n">
         <v>46068.99305555555</v>
       </c>
-      <c r="I109" s="2" t="n">
+      <c r="I109" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J109" t="inlineStr">
@@ -6885,10 +6822,8 @@
           <t>23:50:00</t>
         </is>
       </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K109" t="n">
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>0</v>
@@ -6937,7 +6872,7 @@
       <c r="H110" s="1" t="n">
         <v>46068.99141203704</v>
       </c>
-      <c r="I110" s="2" t="n">
+      <c r="I110" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J110" t="inlineStr">
@@ -6945,10 +6880,8 @@
           <t>23:47:38</t>
         </is>
       </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K110" t="n">
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
@@ -6997,7 +6930,7 @@
       <c r="H111" s="1" t="n">
         <v>46068.99106481481</v>
       </c>
-      <c r="I111" s="2" t="n">
+      <c r="I111" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J111" t="inlineStr">
@@ -7005,10 +6938,8 @@
           <t>23:47:08</t>
         </is>
       </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K111" t="n">
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>0</v>
@@ -7057,7 +6988,7 @@
       <c r="H112" s="1" t="n">
         <v>46068.98400462963</v>
       </c>
-      <c r="I112" s="2" t="n">
+      <c r="I112" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J112" t="inlineStr">
@@ -7065,10 +6996,8 @@
           <t>23:36:58</t>
         </is>
       </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K112" t="n">
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>0</v>
@@ -7117,7 +7046,7 @@
       <c r="H113" s="1" t="n">
         <v>46068.82798611111</v>
       </c>
-      <c r="I113" s="2" t="n">
+      <c r="I113" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J113" t="inlineStr">
@@ -7125,10 +7054,8 @@
           <t>19:52:18</t>
         </is>
       </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K113" t="n">
+        <v>2</v>
       </c>
       <c r="L113" t="n">
         <v>0</v>
@@ -7177,7 +7104,7 @@
       <c r="H114" s="1" t="n">
         <v>46068.75684027778</v>
       </c>
-      <c r="I114" s="2" t="n">
+      <c r="I114" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J114" t="inlineStr">
@@ -7185,10 +7112,8 @@
           <t>18:09:51</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K114" t="n">
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>0</v>
@@ -7237,7 +7162,7 @@
       <c r="H115" s="1" t="n">
         <v>46068.65052083333</v>
       </c>
-      <c r="I115" s="2" t="n">
+      <c r="I115" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J115" t="inlineStr">
@@ -7245,10 +7170,8 @@
           <t>15:36:45</t>
         </is>
       </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K115" t="n">
+        <v>2</v>
       </c>
       <c r="L115" t="n">
         <v>0</v>
@@ -7297,7 +7220,7 @@
       <c r="H116" s="1" t="n">
         <v>46068.57148148148</v>
       </c>
-      <c r="I116" s="2" t="n">
+      <c r="I116" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J116" t="inlineStr">
@@ -7305,10 +7228,8 @@
           <t>13:42:56</t>
         </is>
       </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K116" t="n">
+        <v>0</v>
       </c>
       <c r="L116" t="n">
         <v>0</v>
@@ -7357,7 +7278,7 @@
       <c r="H117" s="1" t="n">
         <v>46068.55043981481</v>
       </c>
-      <c r="I117" s="2" t="n">
+      <c r="I117" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J117" t="inlineStr">
@@ -7365,10 +7286,8 @@
           <t>13:12:38</t>
         </is>
       </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K117" t="n">
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>0</v>
@@ -7417,7 +7336,7 @@
       <c r="H118" s="1" t="n">
         <v>46068.43584490741</v>
       </c>
-      <c r="I118" s="2" t="n">
+      <c r="I118" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J118" t="inlineStr">
@@ -7425,10 +7344,8 @@
           <t>10:27:37</t>
         </is>
       </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K118" t="n">
+        <v>1</v>
       </c>
       <c r="L118" t="n">
         <v>0</v>
@@ -7477,7 +7394,7 @@
       <c r="H119" s="1" t="n">
         <v>46068.13533564815</v>
       </c>
-      <c r="I119" s="2" t="n">
+      <c r="I119" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J119" t="inlineStr">
@@ -7485,10 +7402,8 @@
           <t>03:14:53</t>
         </is>
       </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K119" t="n">
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>0</v>
@@ -7537,7 +7452,7 @@
       <c r="H120" s="1" t="n">
         <v>46068.03583333334</v>
       </c>
-      <c r="I120" s="2" t="n">
+      <c r="I120" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J120" t="inlineStr">
@@ -7545,10 +7460,8 @@
           <t>00:51:36</t>
         </is>
       </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K120" t="n">
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>0</v>
@@ -7597,7 +7510,7 @@
       <c r="H121" s="1" t="n">
         <v>46068.03519675926</v>
       </c>
-      <c r="I121" s="2" t="n">
+      <c r="I121" s="1" t="n">
         <v>46068</v>
       </c>
       <c r="J121" t="inlineStr">
@@ -7605,10 +7518,8 @@
           <t>00:50:41</t>
         </is>
       </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K121" t="n">
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>0</v>
@@ -7657,7 +7568,7 @@
       <c r="H122" s="1" t="n">
         <v>46067.99274305555</v>
       </c>
-      <c r="I122" s="2" t="n">
+      <c r="I122" s="1" t="n">
         <v>46067</v>
       </c>
       <c r="J122" t="inlineStr">
@@ -7665,10 +7576,8 @@
           <t>23:49:33</t>
         </is>
       </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K122" t="n">
+        <v>2</v>
       </c>
       <c r="L122" t="n">
         <v>0</v>
@@ -7717,7 +7626,7 @@
       <c r="H123" s="1" t="n">
         <v>46066.98034722222</v>
       </c>
-      <c r="I123" s="2" t="n">
+      <c r="I123" s="1" t="n">
         <v>46066</v>
       </c>
       <c r="J123" t="inlineStr">
@@ -7725,10 +7634,8 @@
           <t>23:31:42</t>
         </is>
       </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K123" t="n">
+        <v>1</v>
       </c>
       <c r="L123" t="n">
         <v>0</v>
@@ -7777,7 +7684,7 @@
       <c r="H124" s="1" t="n">
         <v>46066.78379629629</v>
       </c>
-      <c r="I124" s="2" t="n">
+      <c r="I124" s="1" t="n">
         <v>46066</v>
       </c>
       <c r="J124" t="inlineStr">
@@ -7785,10 +7692,8 @@
           <t>18:48:40</t>
         </is>
       </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K124" t="n">
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>0</v>
@@ -7837,7 +7742,7 @@
       <c r="H125" s="1" t="n">
         <v>46066.18556712963</v>
       </c>
-      <c r="I125" s="2" t="n">
+      <c r="I125" s="1" t="n">
         <v>46066</v>
       </c>
       <c r="J125" t="inlineStr">
@@ -7845,10 +7750,8 @@
           <t>04:27:13</t>
         </is>
       </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K125" t="n">
+        <v>1</v>
       </c>
       <c r="L125" t="n">
         <v>0</v>
@@ -7897,7 +7800,7 @@
       <c r="H126" s="1" t="n">
         <v>46066.05857638889</v>
       </c>
-      <c r="I126" s="2" t="n">
+      <c r="I126" s="1" t="n">
         <v>46066</v>
       </c>
       <c r="J126" t="inlineStr">
@@ -7905,10 +7808,8 @@
           <t>01:24:21</t>
         </is>
       </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K126" t="n">
+        <v>2</v>
       </c>
       <c r="L126" t="n">
         <v>0</v>
@@ -7957,7 +7858,7 @@
       <c r="H127" s="1" t="n">
         <v>46065.67667824074</v>
       </c>
-      <c r="I127" s="2" t="n">
+      <c r="I127" s="1" t="n">
         <v>46065</v>
       </c>
       <c r="J127" t="inlineStr">
@@ -7965,10 +7866,8 @@
           <t>16:14:25</t>
         </is>
       </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="K127" t="n">
+        <v>7</v>
       </c>
       <c r="L127" t="n">
         <v>0</v>
@@ -8017,7 +7916,7 @@
       <c r="H128" s="1" t="n">
         <v>46064.9262962963</v>
       </c>
-      <c r="I128" s="2" t="n">
+      <c r="I128" s="1" t="n">
         <v>46064</v>
       </c>
       <c r="J128" t="inlineStr">
@@ -8025,10 +7924,8 @@
           <t>22:13:52</t>
         </is>
       </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K128" t="n">
+        <v>1</v>
       </c>
       <c r="L128" t="n">
         <v>0</v>
@@ -8077,7 +7974,7 @@
       <c r="H129" s="1" t="n">
         <v>46064.7925</v>
       </c>
-      <c r="I129" s="2" t="n">
+      <c r="I129" s="1" t="n">
         <v>46064</v>
       </c>
       <c r="J129" t="inlineStr">
@@ -8085,10 +7982,8 @@
           <t>19:01:12</t>
         </is>
       </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K129" t="n">
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>0</v>
@@ -8138,7 +8033,7 @@
       <c r="H130" s="1" t="n">
         <v>46064.1034375</v>
       </c>
-      <c r="I130" s="2" t="n">
+      <c r="I130" s="1" t="n">
         <v>46064</v>
       </c>
       <c r="J130" t="inlineStr">
@@ -8146,10 +8041,8 @@
           <t>02:28:57</t>
         </is>
       </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="K130" t="n">
+        <v>9</v>
       </c>
       <c r="L130" t="n">
         <v>0</v>
